--- a/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.213050041564112</v>
+        <v>-0.177495104209326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222987755005633</v>
+        <v>0.169555941842231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4984040502788</v>
+        <v>0.408828796845898</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.243124312431243</v>
+        <v>0.0440627596058505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.318194798749695</v>
+        <v>0.253577180853144</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8975372421409</v>
+        <v>0.833234569213085</v>
       </c>
       <c r="H2" t="n">
-        <v>0.237868521238514</v>
+        <v>0.329800805388355</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0337245857903888</v>
+        <v>-0.0647798871562304</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0999417116741064</v>
+        <v>0.118463103081774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.19826136052899</v>
+        <v>0.042307521587394</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.177495104209326</v>
+        <v>0.126132969292122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.169555941842231</v>
+        <v>0.162682653803339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.408828796845898</v>
+        <v>-0.220553455755053</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0440627596058505</v>
+        <v>0.190653670081903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.253577180853144</v>
+        <v>0.433247657130887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833234569213085</v>
+        <v>0.21112026852648</v>
       </c>
       <c r="H2" t="n">
-        <v>0.329800805388355</v>
+        <v>0.350482783023409</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0647798871562304</v>
+        <v>0.120616370359255</v>
       </c>
       <c r="J2" t="n">
-        <v>0.118463103081774</v>
+        <v>-0.0202016392163657</v>
       </c>
       <c r="K2" t="n">
-        <v>0.042307521587394</v>
+        <v>0.0640547703161968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.818395748774131</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.047800967444784</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.126132969292122</v>
+        <v>0.123312773362017</v>
       </c>
       <c r="C2" t="n">
         <v>0.162682653803339</v>
@@ -461,9 +467,12 @@
         <v>0.0640547703161968</v>
       </c>
       <c r="L2" t="n">
+        <v>0.106007700197355</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.818395748774131</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.047800967444784</v>
       </c>
     </row>

--- a/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.123312773362017</v>
+        <v>0.124902828213514</v>
       </c>
       <c r="C2" t="n">
         <v>0.162682653803339</v>
@@ -464,16 +464,16 @@
         <v>-0.0202016392163657</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0640547703161968</v>
+        <v>0.0642794618386348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.106007700197355</v>
+        <v>0.118423810913776</v>
       </c>
       <c r="M2" t="n">
         <v>0.818395748774131</v>
       </c>
       <c r="N2" t="n">
-        <v>0.047800967444784</v>
+        <v>0.0475638500827432</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_mean.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124902828213514</v>
+        <v>0.124812864176127</v>
       </c>
       <c r="C2" t="n">
         <v>0.162682653803339</v>
@@ -467,7 +467,7 @@
         <v>0.0642794618386348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.118423810913776</v>
+        <v>0.117780975349553</v>
       </c>
       <c r="M2" t="n">
         <v>0.818395748774131</v>
